--- a/Occupations.xlsx
+++ b/Occupations.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Occupations" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="557">
   <si>
     <t>Name</t>
   </si>
@@ -2959,6 +2960,36 @@
   </si>
   <si>
     <t>Wykształcenie</t>
+  </si>
+  <si>
+    <t>Starting Value</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>ArtCraft</t>
+  </si>
+  <si>
+    <t>IsModern</t>
+  </si>
+  <si>
+    <t>IsCategory</t>
+  </si>
+  <si>
+    <t>Uncommon</t>
+  </si>
+  <si>
+    <t>OtherLanguage</t>
+  </si>
+  <si>
+    <t>FirearmsRifleShotgun</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Firearms Rifle/Shotgun</t>
   </si>
 </sst>
 </file>
@@ -3026,6 +3057,20 @@
     <tableColumn id="7" name="Type" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E87" totalsRowShown="0">
+  <autoFilter ref="A1:E87"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Skill"/>
+    <tableColumn id="2" name="Starting Value"/>
+    <tableColumn id="3" name="Category"/>
+    <tableColumn id="4" name="IsModern"/>
+    <tableColumn id="5" name="IsCategory"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3328,7 +3373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5979,8 +6024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6683,6 +6728,1510 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>552</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>555</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>549</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>552</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>504</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>423</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>504</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>427</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>423</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>423</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>555</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>504</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>399</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>555</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>401</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>555</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>403</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>504</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>405</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>555</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>407</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>552</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>409</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>555</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>411</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>555</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>413</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>555</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>415</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>555</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>417</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>555</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>419</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>555</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>421</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>555</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>423</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>423</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>425</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>549</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>556</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>554</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>427</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>427</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>429</v>
+      </c>
+      <c r="B36">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>555</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>431</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>423</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>433</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>427</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>435</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>504</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>437</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>549</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>439</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>423</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>441</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>504</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>443</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>427</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>445</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>427</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>447</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>555</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>449</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>552</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>451</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>555</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>453</v>
+      </c>
+      <c r="B48">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>555</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>455</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>553</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>457</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>555</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>459</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>555</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>461</v>
+      </c>
+      <c r="B52">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>555</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>463</v>
+      </c>
+      <c r="B53">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>555</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>465</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>555</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>467</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>427</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>469</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>504</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>471</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>555</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>473</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>555</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>475</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>504</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>477</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>555</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>479</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>555</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>481</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>555</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>483</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>555</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>485</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>555</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>487</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>504</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>489</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>549</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>491</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>504</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>273</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>555</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>494</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>555</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>496</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>555</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>498</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>552</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>500</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>555</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>502</v>
+      </c>
+      <c r="B73">
+        <v>25</v>
+      </c>
+      <c r="C73" t="s">
+        <v>554</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>504</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>504</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>506</v>
+      </c>
+      <c r="B75">
+        <v>25</v>
+      </c>
+      <c r="C75" t="s">
+        <v>554</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>507</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>555</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>509</v>
+      </c>
+      <c r="B77">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>427</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>511</v>
+      </c>
+      <c r="B78">
+        <v>25</v>
+      </c>
+      <c r="C78" t="s">
+        <v>555</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>513</v>
+      </c>
+      <c r="B79">
+        <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>555</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>515</v>
+      </c>
+      <c r="B80">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>427</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>517</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>555</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>519</v>
+      </c>
+      <c r="B82">
+        <v>20</v>
+      </c>
+      <c r="C82" t="s">
+        <v>423</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>521</v>
+      </c>
+      <c r="B83">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>555</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>523</v>
+      </c>
+      <c r="B84">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>555</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>525</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>555</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>527</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>423</v>
+      </c>
+      <c r="D86" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>528</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>504</v>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
